--- a/I_Ambiental/HORARIOS ING_AMBIENTAL_2012.xlsx
+++ b/I_Ambiental/HORARIOS ING_AMBIENTAL_2012.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OmairaTapias\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8270A7E-26D1-4704-BD06-8DC56C0D4E09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E643CD65-0390-4F0E-BFAC-179F17F636DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{52CD51E4-B5E7-4EE9-97B5-A271D95154C6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VI" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="IX" sheetId="9" r:id="rId4"/>
     <sheet name="X" sheetId="10" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="111">
   <si>
     <t>HORA</t>
   </si>
@@ -115,9 +115,6 @@
     <t>No. G</t>
   </si>
   <si>
-    <t>FC403</t>
-  </si>
-  <si>
     <t>AS412</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>AS429</t>
   </si>
   <si>
-    <t>EC114</t>
-  </si>
-  <si>
     <t>AS463</t>
   </si>
   <si>
@@ -203,6 +197,171 @@
   </si>
   <si>
     <t>AS464</t>
+  </si>
+  <si>
+    <t>* homologo con AS604 Grupo 01</t>
+  </si>
+  <si>
+    <t>* homologo con AS605 grupo 01</t>
+  </si>
+  <si>
+    <t>* homologo con AS601 grupo 01</t>
+  </si>
+  <si>
+    <t>AS416(01)</t>
+  </si>
+  <si>
+    <t>404A</t>
+  </si>
+  <si>
+    <t>P1-08</t>
+  </si>
+  <si>
+    <t>AS416(02)</t>
+  </si>
+  <si>
+    <t>202B</t>
+  </si>
+  <si>
+    <t>AS455(01)</t>
+  </si>
+  <si>
+    <t>302B</t>
+  </si>
+  <si>
+    <t>* Homologo con AS702 Grupo 01</t>
+  </si>
+  <si>
+    <t>*HOMOLOGO CON EL AS701 GRUPO 01</t>
+  </si>
+  <si>
+    <t>AS456(01)</t>
+  </si>
+  <si>
+    <t>AS456(02)</t>
+  </si>
+  <si>
+    <t>DR557(01)</t>
+  </si>
+  <si>
+    <t>DR557(02)</t>
+  </si>
+  <si>
+    <t>301B</t>
+  </si>
+  <si>
+    <t>201H</t>
+  </si>
+  <si>
+    <t>DR557(03)</t>
+  </si>
+  <si>
+    <t>407H</t>
+  </si>
+  <si>
+    <t>AS414(01)</t>
+  </si>
+  <si>
+    <t>AS458(01)</t>
+  </si>
+  <si>
+    <t>303B</t>
+  </si>
+  <si>
+    <t>AS421(01)</t>
+  </si>
+  <si>
+    <t>502H</t>
+  </si>
+  <si>
+    <t>AS418(01)</t>
+  </si>
+  <si>
+    <t>AS418(02)</t>
+  </si>
+  <si>
+    <t>AS418(03)</t>
+  </si>
+  <si>
+    <t>AS423(01)</t>
+  </si>
+  <si>
+    <t>AS423(02)</t>
+  </si>
+  <si>
+    <t>AS423(03)</t>
+  </si>
+  <si>
+    <t>AS419(01)</t>
+  </si>
+  <si>
+    <t>401G</t>
+  </si>
+  <si>
+    <t>AS419(02)</t>
+  </si>
+  <si>
+    <t>503H</t>
+  </si>
+  <si>
+    <t>AS419(03)</t>
+  </si>
+  <si>
+    <t>AS459(01)</t>
+  </si>
+  <si>
+    <t>AS459(02)</t>
+  </si>
+  <si>
+    <t>AS459(03)</t>
+  </si>
+  <si>
+    <t>AS460(01)</t>
+  </si>
+  <si>
+    <t>AS460(02)</t>
+  </si>
+  <si>
+    <t>AS463(01)</t>
+  </si>
+  <si>
+    <t>AS463(02)</t>
+  </si>
+  <si>
+    <t>HOMOLOGOS CON AS102 los cinco grupos</t>
+  </si>
+  <si>
+    <t>AS429(01)</t>
+  </si>
+  <si>
+    <t>AS429(02)</t>
+  </si>
+  <si>
+    <t>406H</t>
+  </si>
+  <si>
+    <t>AS429(03)</t>
+  </si>
+  <si>
+    <t>AS429(04)</t>
+  </si>
+  <si>
+    <t>303H</t>
+  </si>
+  <si>
+    <t>AS461(01)</t>
+  </si>
+  <si>
+    <t>402H</t>
+  </si>
+  <si>
+    <t>AS461(02)</t>
+  </si>
+  <si>
+    <t>AS461(03)</t>
+  </si>
+  <si>
+    <t>404H</t>
   </si>
 </sst>
 </file>
@@ -226,15 +385,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -351,8 +516,36 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -363,6 +556,17 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -373,54 +577,32 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -434,32 +616,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -473,10 +661,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -792,11 +997,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE898E07-6592-4066-911E-CF5F3C3D4840}">
-  <dimension ref="A3:R21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:S21"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O8" sqref="O8:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,80 +1014,80 @@
     <col min="13" max="13" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="21"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="17"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -894,20 +1099,28 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="O6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="O6" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="13">
         <v>4</v>
       </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q6" s="14">
+        <v>30</v>
+      </c>
+      <c r="R6" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -919,25 +1132,37 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="O7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="8">
+      <c r="O7" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7">
         <v>3</v>
       </c>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="5"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q7" s="11">
+        <v>35</v>
+      </c>
+      <c r="R7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -948,21 +1173,32 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="O8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" s="8">
+      <c r="O8" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="7">
         <v>4</v>
       </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="5"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q8" s="11">
+        <v>35</v>
+      </c>
+      <c r="R8" s="7">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -973,16 +1209,23 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="O9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" s="8">
+      <c r="O9" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="7">
         <v>2</v>
       </c>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q9" s="11">
+        <v>30</v>
+      </c>
+      <c r="R9" s="7">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -998,103 +1241,134 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="O10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P10" s="8">
+      <c r="O10" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="7">
         <v>3</v>
       </c>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="Q10" s="11"/>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="O11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" s="8">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="O11" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="9">
         <v>3</v>
       </c>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="Q11" s="12">
+        <v>30</v>
+      </c>
+      <c r="R11" s="9">
+        <v>1</v>
+      </c>
+      <c r="S11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="6"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1104,7 +1378,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1121,39 +1395,39 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -1231,11 +1505,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064AE008-59FD-4E5B-9BC0-E22A9BBCAEEE}">
-  <dimension ref="A3:R21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A3:S21"/>
   <sheetViews>
-    <sheetView topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,185 +1522,236 @@
     <col min="13" max="13" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="21"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="17"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="O6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="O6" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="13">
         <v>3</v>
       </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q6" s="15">
+        <v>30</v>
+      </c>
+      <c r="R6" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="O7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" s="8">
+      <c r="O7" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="7">
         <v>2</v>
       </c>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="5"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q7" s="8">
+        <v>24</v>
+      </c>
+      <c r="R7" s="7">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="O8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="8">
+      <c r="O8" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="7">
         <v>3</v>
       </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="5"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q8" s="8"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="J9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="O9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="P9" s="8">
+      <c r="O9" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="7">
         <v>3</v>
       </c>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q9" s="8">
+        <v>30</v>
+      </c>
+      <c r="R9" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1437,96 +1762,115 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>30</v>
+      </c>
+      <c r="R10" s="7">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="O11" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="O11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P11" s="8">
+      <c r="P11" s="9">
         <v>4</v>
       </c>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="Q11" s="10">
+        <v>30</v>
+      </c>
+      <c r="R11" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="6"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1534,8 +1878,12 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -1543,56 +1891,68 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="H16" s="28" t="s">
+        <v>68</v>
+      </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -1670,11 +2030,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC99442-6ED8-4791-9340-3655DBBA79CB}">
-  <dimension ref="A3:R21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A3:R41"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,76 +2049,76 @@
   <sheetData>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="21"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="17"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1766,24 +2126,40 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="O6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="O6" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="13">
         <v>3</v>
       </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="4"/>
+      <c r="Q6" s="15">
+        <v>35</v>
+      </c>
+      <c r="R6" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1791,192 +2167,328 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="O7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="8">
+      <c r="O7" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7">
         <v>3</v>
       </c>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="5"/>
+      <c r="Q7" s="8">
+        <v>35</v>
+      </c>
+      <c r="R7" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="O8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" s="8">
+      <c r="O8" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="7">
         <v>3</v>
       </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="5"/>
+      <c r="Q8" s="8">
+        <v>35</v>
+      </c>
+      <c r="R8" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="O9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="P9" s="8">
+      <c r="O9" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="7">
         <v>2</v>
       </c>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="5"/>
+      <c r="Q9" s="8">
+        <v>30</v>
+      </c>
+      <c r="R9" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>30</v>
+      </c>
+      <c r="R10" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="O11" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="O11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="P11" s="8">
+      <c r="P11" s="9">
         <v>3</v>
       </c>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="Q11" s="10">
+        <v>30</v>
+      </c>
+      <c r="R11" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="6"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="B14" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -1988,50 +2500,86 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -2084,8 +2632,350 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="30">
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2109,11 +2999,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D77BECE-C5E5-4AC8-A998-3520FF4F3F8F}">
-  <dimension ref="A3:S21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A3:R21"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2126,84 +3016,80 @@
     <col min="13" max="13" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="17"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -2215,21 +3101,24 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="J6" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="O6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="O6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="13">
         <v>3</v>
       </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q6" s="15"/>
+      <c r="R6" s="13"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -2241,21 +3130,24 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="7">
         <v>3</v>
       </c>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q7" s="8"/>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2271,17 +3163,16 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="O8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="8">
+      <c r="O8" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="7">
         <v>3</v>
       </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q8" s="8"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -2297,17 +3188,20 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="O9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>35</v>
+      </c>
+      <c r="R9" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -2319,112 +3213,121 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="9">
         <v>3</v>
       </c>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="Q10" s="10">
+        <v>35</v>
+      </c>
+      <c r="R10" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="O11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="O12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P12" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -2436,7 +3339,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -2446,46 +3349,54 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -2539,19 +3450,18 @@
       <c r="M21" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="S4:S5"/>
+  <mergeCells count="17">
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -2564,11 +3474,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C7EF15-3D56-4548-966A-D4C6D4BC0FE3}">
-  <dimension ref="A3:R21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A3:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O20:P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2581,80 +3491,80 @@
     <col min="13" max="13" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="21"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="17"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -2664,22 +3574,26 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="O6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="O6" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="13">
         <v>3</v>
       </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q6" s="15"/>
+      <c r="R6" s="13"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -2689,22 +3603,30 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="O7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="P7" s="8">
+      <c r="O7" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="7">
         <v>2</v>
       </c>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="5"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q7" s="8">
+        <v>35</v>
+      </c>
+      <c r="R7" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2712,24 +3634,28 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="O8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="8">
+      <c r="O8" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="7">
         <v>3</v>
       </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="5"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q8" s="8"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -2737,29 +3663,42 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="O9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="P9" s="8">
+      <c r="O9" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="7">
         <v>2</v>
       </c>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q9" s="8"/>
+      <c r="R9" s="7">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -2770,92 +3709,120 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="O10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="8">
+      <c r="O10" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="9">
         <v>3</v>
       </c>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="Q10" s="10">
+        <v>30</v>
+      </c>
+      <c r="R10" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="6"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -2865,23 +3832,35 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -2889,39 +3868,47 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -2976,14 +3963,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="R4:R5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2991,8 +3975,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
